--- a/csec/database/Additional Maths data.xlsx
+++ b/csec/database/Additional Maths data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -19,103 +19,100 @@
     <t>id</t>
   </si>
   <si>
+    <t>CSEC Additional Mathematics June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1EulIbf25zJWo2vwy5JvKOq3IiV3TuvYo</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1L6VG6xXKBg2lqVHL9Ein436K4t5ZnH92</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2017 P2.pdf</t>
+  </si>
+  <si>
+    <t>1102fnBcrAkkg4ZYCuhwBceweurXNh0M-</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2016 P3.pdf</t>
+  </si>
+  <si>
+    <t>1AN4V8H6l4X9GBAle_aOzmZBRwyKQ9ynz</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2016 P2.pdf</t>
+  </si>
+  <si>
+    <t>1emFkKQIw7G7sg5VqWuEpQ7oUvVe2Iv67</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2015 P3.pdf</t>
+  </si>
+  <si>
+    <t>1ZffcMbi9PuyZidwK1BGJuw9uliGXX4ng</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2015 P2.pdf</t>
+  </si>
+  <si>
+    <t>1rQou3BDMRfkDKkbz9Pd1X8NPvV0iPrjw</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2014 P3.pdf</t>
+  </si>
+  <si>
+    <t>1-be8xn_N3eNLUq5Iu-3_spWd3gTbCsXJ</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2014 P2.pdf</t>
+  </si>
+  <si>
+    <t>1oUv0NVzA5oB4T8TXpZ0EwGHUck-xyKa6</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2013 P3.pdf</t>
+  </si>
+  <si>
+    <t>16qavDtoil8gA7FhnNkNH2wyctqFJ5eR5</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2013 P2.pdf</t>
+  </si>
+  <si>
+    <t>1fmAkUEttCBZ2LBBqX6ijs3xymaUJ6Pxn</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2012 P3.pdf</t>
+  </si>
+  <si>
+    <t>1wIcGvKjuJW9vpp7D9P-dDZD8sLZrNrAD</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2012 P2.pdf</t>
+  </si>
+  <si>
+    <t>15i8X--hQ7JyvgzjKG4Qu9tUI64FxvSVt</t>
+  </si>
+  <si>
+    <t>CSEC Additional Mathematics June 2021 Spec</t>
+  </si>
+  <si>
+    <t>1jajOnIT6sDd40oFxFuwO7rKOZS3i65Vl</t>
+  </si>
+  <si>
     <t>CSEC Additional Mathematics June 2022 P2.pdf</t>
   </si>
   <si>
     <t>1msrn7GIT2NF1H4KERXXSWLqYLbbWk1_Z</t>
   </si>
   <si>
-    <t>2021 specimen</t>
-  </si>
-  <si>
-    <t>1jajOnIT6sDd40oFxFuwO7rKOZS3i65Vl</t>
-  </si>
-  <si>
-    <t>add_maths_2019_p2.pdf</t>
-  </si>
-  <si>
-    <t>1EulIbf25zJWo2vwy5JvKOq3IiV3TuvYo</t>
-  </si>
-  <si>
-    <t>add_maths_2015_p3.pdf</t>
-  </si>
-  <si>
-    <t>1ZffcMbi9PuyZidwK1BGJuw9uliGXX4ng</t>
-  </si>
-  <si>
-    <t>add_maths_2014_p3.pdf</t>
-  </si>
-  <si>
-    <t>1-be8xn_N3eNLUq5Iu-3_spWd3gTbCsXJ</t>
-  </si>
-  <si>
-    <t>add_maths_2013_p3.pdf</t>
-  </si>
-  <si>
-    <t>16qavDtoil8gA7FhnNkNH2wyctqFJ5eR5</t>
-  </si>
-  <si>
-    <t>add_maths_2012_p3.pdf</t>
-  </si>
-  <si>
-    <t>1wIcGvKjuJW9vpp7D9P-dDZD8sLZrNrAD</t>
-  </si>
-  <si>
-    <t>add_maths_2012_p2.pdf</t>
-  </si>
-  <si>
-    <t>15i8X--hQ7JyvgzjKG4Qu9tUI64FxvSVt</t>
-  </si>
-  <si>
-    <t>add_maths_2018_p2.pdf</t>
-  </si>
-  <si>
-    <t>1L6VG6xXKBg2lqVHL9Ein436K4t5ZnH92</t>
-  </si>
-  <si>
-    <t>add_maths_2017_p2.pdf</t>
-  </si>
-  <si>
-    <t>1102fnBcrAkkg4ZYCuhwBceweurXNh0M-</t>
-  </si>
-  <si>
-    <t>add_maths_2016_p3.pdf</t>
-  </si>
-  <si>
-    <t>1AN4V8H6l4X9GBAle_aOzmZBRwyKQ9ynz</t>
-  </si>
-  <si>
-    <t>add_maths_2016_p2.pdf</t>
-  </si>
-  <si>
-    <t>1emFkKQIw7G7sg5VqWuEpQ7oUvVe2Iv67</t>
-  </si>
-  <si>
-    <t>add_maths_2015_p2.pdf</t>
-  </si>
-  <si>
-    <t>1rQou3BDMRfkDKkbz9Pd1X8NPvV0iPrjw</t>
-  </si>
-  <si>
-    <t>add_maths_2014_p2.pdf</t>
-  </si>
-  <si>
-    <t>1oUv0NVzA5oB4T8TXpZ0EwGHUck-xyKa6</t>
-  </si>
-  <si>
-    <t>add_maths_2013_p2.pdf</t>
-  </si>
-  <si>
-    <t>1fmAkUEttCBZ2LBBqX6ijs3xymaUJ6Pxn</t>
-  </si>
-  <si>
     <t>CSEC Additional Mathematics June 2017 P032.pdf</t>
   </si>
   <si>
     <t>1Zp3_zBzT7MyGWZ0_xj5pjvWOJY4nsIF6</t>
-  </si>
-  <si>
-    <t>CSEC Additional Mathematics June 2012 P2.pdf</t>
   </si>
   <si>
     <t>10-oTGpuq8gJs1jxpqCImxbTJ-kKoHuOT</t>
@@ -549,58 +546,58 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
